--- a/informe-acciones-usd.xlsx
+++ b/informe-acciones-usd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,29 +512,298 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>AMZN.BA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1930</v>
+      </c>
+      <c r="F3" t="n">
+        <v>67550</v>
+      </c>
+      <c r="G3" t="n">
+        <v>175</v>
+      </c>
+      <c r="H3" t="n">
+        <v>45.64</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1199999999999974</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>COME.BA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>741</v>
+      </c>
+      <c r="E4" t="n">
+        <v>229.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>169874.25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>98145.45</v>
+      </c>
+      <c r="H4" t="n">
+        <v>114.78</v>
+      </c>
+      <c r="I4" t="n">
+        <v>66.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GGAL.BA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3035</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4110</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28770</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7525</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.090000000000002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GOOGL.BA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3998.94</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4560</v>
+      </c>
+      <c r="F6" t="n">
+        <v>77520</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9538.02</v>
+      </c>
+      <c r="H6" t="n">
+        <v>52.38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.450000000000003</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MELI.BA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18890.38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20950</v>
+      </c>
+      <c r="F7" t="n">
+        <v>167600</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16476.96</v>
+      </c>
+      <c r="H7" t="n">
+        <v>113.24</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>META.BA</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10900</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29650</v>
+      </c>
+      <c r="F8" t="n">
+        <v>266850</v>
+      </c>
+      <c r="G8" t="n">
+        <v>168750</v>
+      </c>
+      <c r="H8" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>114.02</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>NVDA.BA</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C9" t="n">
         <v>7163.88</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D9" t="n">
         <v>21</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E9" t="n">
         <v>7690</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F9" t="n">
         <v>161490</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G9" t="n">
         <v>11048.52</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H9" t="n">
         <v>109.11</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I9" t="n">
         <v>7.459999999999994</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PAMP.BA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2528</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F10" t="n">
+        <v>37660</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2268</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.539999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PFE.BA</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9267.58</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>VIST.BA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>14377.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22900</v>
+      </c>
+      <c r="F12" t="n">
+        <v>91600</v>
+      </c>
+      <c r="G12" t="n">
+        <v>34090</v>
+      </c>
+      <c r="H12" t="n">
+        <v>61.89</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23.03</v>
       </c>
     </row>
   </sheetData>

--- a/informe-acciones-usd.xlsx
+++ b/informe-acciones-usd.xlsx
@@ -500,10 +500,10 @@
         <v>896</v>
       </c>
       <c r="H2" t="n">
-        <v>11.9</v>
+        <v>12.33</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6100000000000012</v>
+        <v>0.6300000000000008</v>
       </c>
     </row>
     <row r="3">
@@ -531,10 +531,10 @@
         <v>175</v>
       </c>
       <c r="H3" t="n">
-        <v>45.64</v>
+        <v>47.29</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1199999999999974</v>
+        <v>0.1300000000000026</v>
       </c>
     </row>
     <row r="4">
@@ -553,19 +553,19 @@
         <v>741</v>
       </c>
       <c r="E4" t="n">
-        <v>229.25</v>
+        <v>229</v>
       </c>
       <c r="F4" t="n">
-        <v>169874.25</v>
+        <v>169689</v>
       </c>
       <c r="G4" t="n">
-        <v>98145.45</v>
+        <v>97960.2</v>
       </c>
       <c r="H4" t="n">
-        <v>114.78</v>
+        <v>118.78</v>
       </c>
       <c r="I4" t="n">
-        <v>66.31</v>
+        <v>68.56999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -584,19 +584,19 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>4110</v>
+        <v>4100</v>
       </c>
       <c r="F5" t="n">
-        <v>28770</v>
+        <v>28700</v>
       </c>
       <c r="G5" t="n">
-        <v>7525</v>
+        <v>7455</v>
       </c>
       <c r="H5" t="n">
-        <v>19.44</v>
+        <v>20.09</v>
       </c>
       <c r="I5" t="n">
-        <v>5.090000000000002</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -624,10 +624,10 @@
         <v>9538.02</v>
       </c>
       <c r="H6" t="n">
-        <v>52.38</v>
+        <v>54.26</v>
       </c>
       <c r="I6" t="n">
-        <v>6.450000000000003</v>
+        <v>6.669999999999995</v>
       </c>
     </row>
     <row r="7">
@@ -646,19 +646,19 @@
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>20950</v>
+        <v>20975</v>
       </c>
       <c r="F7" t="n">
-        <v>167600</v>
+        <v>167800</v>
       </c>
       <c r="G7" t="n">
-        <v>16476.96</v>
+        <v>16676.96</v>
       </c>
       <c r="H7" t="n">
-        <v>113.24</v>
+        <v>117.46</v>
       </c>
       <c r="I7" t="n">
-        <v>11.13</v>
+        <v>11.66999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -677,19 +677,19 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>29650</v>
+        <v>29750</v>
       </c>
       <c r="F8" t="n">
-        <v>266850</v>
+        <v>267750</v>
       </c>
       <c r="G8" t="n">
-        <v>168750</v>
+        <v>169650</v>
       </c>
       <c r="H8" t="n">
-        <v>180.3</v>
+        <v>187.43</v>
       </c>
       <c r="I8" t="n">
-        <v>114.02</v>
+        <v>118.76</v>
       </c>
     </row>
     <row r="9">
@@ -717,10 +717,10 @@
         <v>11048.52</v>
       </c>
       <c r="H9" t="n">
-        <v>109.11</v>
+        <v>113.04</v>
       </c>
       <c r="I9" t="n">
-        <v>7.459999999999994</v>
+        <v>7.730000000000004</v>
       </c>
     </row>
     <row r="10">
@@ -739,19 +739,19 @@
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>2690</v>
+        <v>2695</v>
       </c>
       <c r="F10" t="n">
-        <v>37660</v>
+        <v>37730</v>
       </c>
       <c r="G10" t="n">
-        <v>2268</v>
+        <v>2338</v>
       </c>
       <c r="H10" t="n">
-        <v>25.45</v>
+        <v>26.41</v>
       </c>
       <c r="I10" t="n">
-        <v>1.539999999999999</v>
+        <v>1.640000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -791,19 +791,19 @@
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>22900</v>
+        <v>22925</v>
       </c>
       <c r="F12" t="n">
-        <v>91600</v>
+        <v>91700</v>
       </c>
       <c r="G12" t="n">
-        <v>34090</v>
+        <v>34190</v>
       </c>
       <c r="H12" t="n">
-        <v>61.89</v>
+        <v>64.19</v>
       </c>
       <c r="I12" t="n">
-        <v>23.03</v>
+        <v>23.93</v>
       </c>
     </row>
   </sheetData>

--- a/informe-acciones-usd.xlsx
+++ b/informe-acciones-usd.xlsx
@@ -490,21 +490,11 @@
       <c r="D2" t="n">
         <v>280</v>
       </c>
-      <c r="E2" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17612</v>
-      </c>
-      <c r="G2" t="n">
-        <v>896</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6300000000000008</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -522,19 +512,19 @@
         <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>1930</v>
+        <v>1675</v>
       </c>
       <c r="F3" t="n">
-        <v>67550</v>
+        <v>58625</v>
       </c>
       <c r="G3" t="n">
-        <v>175</v>
+        <v>-8750</v>
       </c>
       <c r="H3" t="n">
-        <v>47.29</v>
+        <v>44.22</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1300000000000026</v>
+        <v>-6.600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -553,19 +543,19 @@
         <v>741</v>
       </c>
       <c r="E4" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F4" t="n">
-        <v>169689</v>
+        <v>174135</v>
       </c>
       <c r="G4" t="n">
-        <v>97960.2</v>
+        <v>102406.2</v>
       </c>
       <c r="H4" t="n">
-        <v>118.78</v>
+        <v>131.34</v>
       </c>
       <c r="I4" t="n">
-        <v>68.56999999999999</v>
+        <v>77.24000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -584,19 +574,19 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>4100</v>
+        <v>3680</v>
       </c>
       <c r="F5" t="n">
-        <v>28700</v>
+        <v>25760</v>
       </c>
       <c r="G5" t="n">
-        <v>7455</v>
+        <v>4515</v>
       </c>
       <c r="H5" t="n">
-        <v>20.09</v>
+        <v>19.43</v>
       </c>
       <c r="I5" t="n">
-        <v>5.220000000000001</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="6">
@@ -615,19 +605,19 @@
         <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>4560</v>
+        <v>4050</v>
       </c>
       <c r="F6" t="n">
-        <v>77520</v>
+        <v>68850</v>
       </c>
       <c r="G6" t="n">
-        <v>9538.02</v>
+        <v>868.02</v>
       </c>
       <c r="H6" t="n">
-        <v>54.26</v>
+        <v>51.93</v>
       </c>
       <c r="I6" t="n">
-        <v>6.669999999999995</v>
+        <v>0.6499999999999986</v>
       </c>
     </row>
     <row r="7">
@@ -646,19 +636,19 @@
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>20975</v>
+        <v>18350</v>
       </c>
       <c r="F7" t="n">
-        <v>167800</v>
+        <v>146800</v>
       </c>
       <c r="G7" t="n">
-        <v>16676.96</v>
+        <v>-4323.04</v>
       </c>
       <c r="H7" t="n">
-        <v>117.46</v>
+        <v>110.72</v>
       </c>
       <c r="I7" t="n">
-        <v>11.66999999999999</v>
+        <v>-3.260000000000005</v>
       </c>
     </row>
     <row r="8">
@@ -677,19 +667,19 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>29750</v>
+        <v>26450</v>
       </c>
       <c r="F8" t="n">
-        <v>267750</v>
+        <v>238050</v>
       </c>
       <c r="G8" t="n">
-        <v>169650</v>
+        <v>139950</v>
       </c>
       <c r="H8" t="n">
-        <v>187.43</v>
+        <v>179.55</v>
       </c>
       <c r="I8" t="n">
-        <v>118.76</v>
+        <v>105.56</v>
       </c>
     </row>
     <row r="9">
@@ -708,19 +698,19 @@
         <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>7690</v>
+        <v>6500</v>
       </c>
       <c r="F9" t="n">
-        <v>161490</v>
+        <v>136500</v>
       </c>
       <c r="G9" t="n">
-        <v>11048.52</v>
+        <v>-13941.48</v>
       </c>
       <c r="H9" t="n">
-        <v>113.04</v>
+        <v>102.96</v>
       </c>
       <c r="I9" t="n">
-        <v>7.730000000000004</v>
+        <v>-10.51000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -739,19 +729,19 @@
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>2695</v>
+        <v>2445</v>
       </c>
       <c r="F10" t="n">
-        <v>37730</v>
+        <v>34230</v>
       </c>
       <c r="G10" t="n">
-        <v>2338</v>
+        <v>-1162</v>
       </c>
       <c r="H10" t="n">
-        <v>26.41</v>
+        <v>25.82</v>
       </c>
       <c r="I10" t="n">
-        <v>1.640000000000001</v>
+        <v>-0.870000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -769,11 +759,21 @@
       <c r="D11" t="n">
         <v>6</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>9910</v>
+      </c>
+      <c r="F11" t="n">
+        <v>59460</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3854.52</v>
+      </c>
+      <c r="H11" t="n">
+        <v>44.85</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.910000000000004</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -791,19 +791,19 @@
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>22925</v>
+        <v>21350</v>
       </c>
       <c r="F12" t="n">
-        <v>91700</v>
+        <v>85400</v>
       </c>
       <c r="G12" t="n">
-        <v>34190</v>
+        <v>27890</v>
       </c>
       <c r="H12" t="n">
-        <v>64.19</v>
+        <v>64.41</v>
       </c>
       <c r="I12" t="n">
-        <v>23.93</v>
+        <v>21.02999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/informe-acciones-usd.xlsx
+++ b/informe-acciones-usd.xlsx
@@ -490,11 +490,21 @@
       <c r="D2" t="n">
         <v>280</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15596</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1120</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.8699999999999992</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -512,19 +522,19 @@
         <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>1675</v>
+        <v>1650</v>
       </c>
       <c r="F3" t="n">
-        <v>58625</v>
+        <v>57750</v>
       </c>
       <c r="G3" t="n">
-        <v>-8750</v>
+        <v>-9625</v>
       </c>
       <c r="H3" t="n">
-        <v>44.22</v>
+        <v>44.62</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.600000000000001</v>
+        <v>-7.440000000000005</v>
       </c>
     </row>
     <row r="4">
@@ -543,19 +553,19 @@
         <v>741</v>
       </c>
       <c r="E4" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F4" t="n">
-        <v>174135</v>
+        <v>171912</v>
       </c>
       <c r="G4" t="n">
-        <v>102406.2</v>
+        <v>100183.2</v>
       </c>
       <c r="H4" t="n">
-        <v>131.34</v>
+        <v>132.83</v>
       </c>
       <c r="I4" t="n">
-        <v>77.24000000000001</v>
+        <v>77.41000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -574,19 +584,19 @@
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>3680</v>
+        <v>3580</v>
       </c>
       <c r="F5" t="n">
-        <v>25760</v>
+        <v>25060</v>
       </c>
       <c r="G5" t="n">
-        <v>4515</v>
+        <v>3815</v>
       </c>
       <c r="H5" t="n">
-        <v>19.43</v>
+        <v>19.36</v>
       </c>
       <c r="I5" t="n">
-        <v>3.41</v>
+        <v>2.939999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -605,19 +615,19 @@
         <v>17</v>
       </c>
       <c r="E6" t="n">
-        <v>4050</v>
+        <v>3785</v>
       </c>
       <c r="F6" t="n">
-        <v>68850</v>
+        <v>64345</v>
       </c>
       <c r="G6" t="n">
-        <v>868.02</v>
+        <v>-3636.98</v>
       </c>
       <c r="H6" t="n">
-        <v>51.93</v>
+        <v>49.72</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6499999999999986</v>
+        <v>-2.810000000000002</v>
       </c>
     </row>
     <row r="7">
@@ -636,19 +646,19 @@
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>18350</v>
+        <v>17425</v>
       </c>
       <c r="F7" t="n">
-        <v>146800</v>
+        <v>139400</v>
       </c>
       <c r="G7" t="n">
-        <v>-4323.04</v>
+        <v>-11723.04</v>
       </c>
       <c r="H7" t="n">
-        <v>110.72</v>
+        <v>107.71</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.260000000000005</v>
+        <v>-9.060000000000002</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +677,19 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>26450</v>
+        <v>25075</v>
       </c>
       <c r="F8" t="n">
-        <v>238050</v>
+        <v>225675</v>
       </c>
       <c r="G8" t="n">
-        <v>139950</v>
+        <v>127575</v>
       </c>
       <c r="H8" t="n">
-        <v>179.55</v>
+        <v>174.37</v>
       </c>
       <c r="I8" t="n">
-        <v>105.56</v>
+        <v>98.57000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -698,19 +708,19 @@
         <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="F9" t="n">
-        <v>136500</v>
+        <v>126000</v>
       </c>
       <c r="G9" t="n">
-        <v>-13941.48</v>
+        <v>-24441.48</v>
       </c>
       <c r="H9" t="n">
-        <v>102.96</v>
+        <v>97.36</v>
       </c>
       <c r="I9" t="n">
-        <v>-10.51000000000001</v>
+        <v>-18.88</v>
       </c>
     </row>
     <row r="10">
@@ -729,19 +739,19 @@
         <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>2445</v>
+        <v>2355</v>
       </c>
       <c r="F10" t="n">
-        <v>34230</v>
+        <v>32970</v>
       </c>
       <c r="G10" t="n">
-        <v>-1162</v>
+        <v>-2422</v>
       </c>
       <c r="H10" t="n">
-        <v>25.82</v>
+        <v>25.47</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.870000000000001</v>
+        <v>-1.880000000000003</v>
       </c>
     </row>
     <row r="11">
@@ -760,19 +770,19 @@
         <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>9910</v>
+        <v>9950</v>
       </c>
       <c r="F11" t="n">
-        <v>59460</v>
+        <v>59700</v>
       </c>
       <c r="G11" t="n">
-        <v>3854.52</v>
+        <v>4094.52</v>
       </c>
       <c r="H11" t="n">
-        <v>44.85</v>
+        <v>46.13</v>
       </c>
       <c r="I11" t="n">
-        <v>2.910000000000004</v>
+        <v>3.170000000000002</v>
       </c>
     </row>
     <row r="12">
@@ -791,19 +801,19 @@
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>21350</v>
+        <v>18650</v>
       </c>
       <c r="F12" t="n">
-        <v>85400</v>
+        <v>74600</v>
       </c>
       <c r="G12" t="n">
-        <v>27890</v>
+        <v>17090</v>
       </c>
       <c r="H12" t="n">
-        <v>64.41</v>
+        <v>57.64</v>
       </c>
       <c r="I12" t="n">
-        <v>21.02999999999999</v>
+        <v>13.2</v>
       </c>
     </row>
   </sheetData>
